--- a/Uploads/bitcoin_close_1min.xlsx
+++ b/Uploads/bitcoin_close_1min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8710"/>
+  <dimension ref="A1:B8728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87535,6 +87535,186 @@
         <v>104806.92</v>
       </c>
     </row>
+    <row r="8711">
+      <c r="A8711" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:16</t>
+        </is>
+      </c>
+      <c r="B8711" t="n">
+        <v>104820.82</v>
+      </c>
+    </row>
+    <row r="8712">
+      <c r="A8712" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:17</t>
+        </is>
+      </c>
+      <c r="B8712" t="n">
+        <v>104865.84</v>
+      </c>
+    </row>
+    <row r="8713">
+      <c r="A8713" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:18</t>
+        </is>
+      </c>
+      <c r="B8713" t="n">
+        <v>104868.34</v>
+      </c>
+    </row>
+    <row r="8714">
+      <c r="A8714" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:19</t>
+        </is>
+      </c>
+      <c r="B8714" t="n">
+        <v>104832.91</v>
+      </c>
+    </row>
+    <row r="8715">
+      <c r="A8715" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:20</t>
+        </is>
+      </c>
+      <c r="B8715" t="n">
+        <v>104845.26</v>
+      </c>
+    </row>
+    <row r="8716">
+      <c r="A8716" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:21</t>
+        </is>
+      </c>
+      <c r="B8716" t="n">
+        <v>104845.74</v>
+      </c>
+    </row>
+    <row r="8717">
+      <c r="A8717" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:22</t>
+        </is>
+      </c>
+      <c r="B8717" t="n">
+        <v>104739.91</v>
+      </c>
+    </row>
+    <row r="8718">
+      <c r="A8718" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:23</t>
+        </is>
+      </c>
+      <c r="B8718" t="n">
+        <v>104715.11</v>
+      </c>
+    </row>
+    <row r="8719">
+      <c r="A8719" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:24</t>
+        </is>
+      </c>
+      <c r="B8719" t="n">
+        <v>104690.62</v>
+      </c>
+    </row>
+    <row r="8720">
+      <c r="A8720" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:25</t>
+        </is>
+      </c>
+      <c r="B8720" t="n">
+        <v>104663.84</v>
+      </c>
+    </row>
+    <row r="8721">
+      <c r="A8721" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:26</t>
+        </is>
+      </c>
+      <c r="B8721" t="n">
+        <v>104714.05</v>
+      </c>
+    </row>
+    <row r="8722">
+      <c r="A8722" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:27</t>
+        </is>
+      </c>
+      <c r="B8722" t="n">
+        <v>104817.28</v>
+      </c>
+    </row>
+    <row r="8723">
+      <c r="A8723" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:28</t>
+        </is>
+      </c>
+      <c r="B8723" t="n">
+        <v>104934.49</v>
+      </c>
+    </row>
+    <row r="8724">
+      <c r="A8724" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:29</t>
+        </is>
+      </c>
+      <c r="B8724" t="n">
+        <v>105001.16</v>
+      </c>
+    </row>
+    <row r="8725">
+      <c r="A8725" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:30</t>
+        </is>
+      </c>
+      <c r="B8725" t="n">
+        <v>105045.7</v>
+      </c>
+    </row>
+    <row r="8726">
+      <c r="A8726" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:32</t>
+        </is>
+      </c>
+      <c r="B8726" t="n">
+        <v>105194.73</v>
+      </c>
+    </row>
+    <row r="8727">
+      <c r="A8727" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:33</t>
+        </is>
+      </c>
+      <c r="B8727" t="n">
+        <v>105166.77</v>
+      </c>
+    </row>
+    <row r="8728">
+      <c r="A8728" t="inlineStr">
+        <is>
+          <t>2025-05-20 15:34</t>
+        </is>
+      </c>
+      <c r="B8728" t="n">
+        <v>105199.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Uploads/bitcoin_close_1min.xlsx
+++ b/Uploads/bitcoin_close_1min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8381"/>
+  <dimension ref="A1:B8410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84245,6 +84245,296 @@
         <v>107454.85</v>
       </c>
     </row>
+    <row r="8382">
+      <c r="A8382" t="inlineStr">
+        <is>
+          <t>2025-05-21 05:50</t>
+        </is>
+      </c>
+      <c r="B8382" t="n">
+        <v>107509.97</v>
+      </c>
+    </row>
+    <row r="8383">
+      <c r="A8383" t="inlineStr">
+        <is>
+          <t>2025-05-21 05:51</t>
+        </is>
+      </c>
+      <c r="B8383" t="n">
+        <v>107517.76</v>
+      </c>
+    </row>
+    <row r="8384">
+      <c r="A8384" t="inlineStr">
+        <is>
+          <t>2025-05-21 05:52</t>
+        </is>
+      </c>
+      <c r="B8384" t="n">
+        <v>107500</v>
+      </c>
+    </row>
+    <row r="8385">
+      <c r="A8385" t="inlineStr">
+        <is>
+          <t>2025-05-21 05:53</t>
+        </is>
+      </c>
+      <c r="B8385" t="n">
+        <v>107555.09</v>
+      </c>
+    </row>
+    <row r="8386">
+      <c r="A8386" t="inlineStr">
+        <is>
+          <t>2025-05-21 05:54</t>
+        </is>
+      </c>
+      <c r="B8386" t="n">
+        <v>107611.38</v>
+      </c>
+    </row>
+    <row r="8387">
+      <c r="A8387" t="inlineStr">
+        <is>
+          <t>2025-05-21 05:55</t>
+        </is>
+      </c>
+      <c r="B8387" t="n">
+        <v>107634.52</v>
+      </c>
+    </row>
+    <row r="8388">
+      <c r="A8388" t="inlineStr">
+        <is>
+          <t>2025-05-21 05:56</t>
+        </is>
+      </c>
+      <c r="B8388" t="n">
+        <v>107641.05</v>
+      </c>
+    </row>
+    <row r="8389">
+      <c r="A8389" t="inlineStr">
+        <is>
+          <t>2025-05-21 05:57</t>
+        </is>
+      </c>
+      <c r="B8389" t="n">
+        <v>107635.73</v>
+      </c>
+    </row>
+    <row r="8390">
+      <c r="A8390" t="inlineStr">
+        <is>
+          <t>2025-05-21 05:58</t>
+        </is>
+      </c>
+      <c r="B8390" t="n">
+        <v>107648.48</v>
+      </c>
+    </row>
+    <row r="8391">
+      <c r="A8391" t="inlineStr">
+        <is>
+          <t>2025-05-21 05:59</t>
+        </is>
+      </c>
+      <c r="B8391" t="n">
+        <v>107633.64</v>
+      </c>
+    </row>
+    <row r="8392">
+      <c r="A8392" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:00</t>
+        </is>
+      </c>
+      <c r="B8392" t="n">
+        <v>107589.41</v>
+      </c>
+    </row>
+    <row r="8393">
+      <c r="A8393" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:01</t>
+        </is>
+      </c>
+      <c r="B8393" t="n">
+        <v>107569.62</v>
+      </c>
+    </row>
+    <row r="8394">
+      <c r="A8394" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:02</t>
+        </is>
+      </c>
+      <c r="B8394" t="n">
+        <v>107582.41</v>
+      </c>
+    </row>
+    <row r="8395">
+      <c r="A8395" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:04</t>
+        </is>
+      </c>
+      <c r="B8395" t="n">
+        <v>107495.21</v>
+      </c>
+    </row>
+    <row r="8396">
+      <c r="A8396" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:05</t>
+        </is>
+      </c>
+      <c r="B8396" t="n">
+        <v>107500.82</v>
+      </c>
+    </row>
+    <row r="8397">
+      <c r="A8397" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:06</t>
+        </is>
+      </c>
+      <c r="B8397" t="n">
+        <v>107472.8</v>
+      </c>
+    </row>
+    <row r="8398">
+      <c r="A8398" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:07</t>
+        </is>
+      </c>
+      <c r="B8398" t="n">
+        <v>107411.74</v>
+      </c>
+    </row>
+    <row r="8399">
+      <c r="A8399" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:08</t>
+        </is>
+      </c>
+      <c r="B8399" t="n">
+        <v>107419.04</v>
+      </c>
+    </row>
+    <row r="8400">
+      <c r="A8400" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:10</t>
+        </is>
+      </c>
+      <c r="B8400" t="n">
+        <v>107420.56</v>
+      </c>
+    </row>
+    <row r="8401">
+      <c r="A8401" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:11</t>
+        </is>
+      </c>
+      <c r="B8401" t="n">
+        <v>107449.28</v>
+      </c>
+    </row>
+    <row r="8402">
+      <c r="A8402" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:12</t>
+        </is>
+      </c>
+      <c r="B8402" t="n">
+        <v>107405.78</v>
+      </c>
+    </row>
+    <row r="8403">
+      <c r="A8403" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:13</t>
+        </is>
+      </c>
+      <c r="B8403" t="n">
+        <v>107370.02</v>
+      </c>
+    </row>
+    <row r="8404">
+      <c r="A8404" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:14</t>
+        </is>
+      </c>
+      <c r="B8404" t="n">
+        <v>107424.05</v>
+      </c>
+    </row>
+    <row r="8405">
+      <c r="A8405" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:15</t>
+        </is>
+      </c>
+      <c r="B8405" t="n">
+        <v>107404.82</v>
+      </c>
+    </row>
+    <row r="8406">
+      <c r="A8406" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:16</t>
+        </is>
+      </c>
+      <c r="B8406" t="n">
+        <v>107422.86</v>
+      </c>
+    </row>
+    <row r="8407">
+      <c r="A8407" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:17</t>
+        </is>
+      </c>
+      <c r="B8407" t="n">
+        <v>107428.96</v>
+      </c>
+    </row>
+    <row r="8408">
+      <c r="A8408" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:18</t>
+        </is>
+      </c>
+      <c r="B8408" t="n">
+        <v>107381.59</v>
+      </c>
+    </row>
+    <row r="8409">
+      <c r="A8409" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:19</t>
+        </is>
+      </c>
+      <c r="B8409" t="n">
+        <v>107458.38</v>
+      </c>
+    </row>
+    <row r="8410">
+      <c r="A8410" t="inlineStr">
+        <is>
+          <t>2025-05-21 06:20</t>
+        </is>
+      </c>
+      <c r="B8410" t="n">
+        <v>107513.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Uploads/bitcoin_close_1min.xlsx
+++ b/Uploads/bitcoin_close_1min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8662"/>
+  <dimension ref="A1:B8681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87055,6 +87055,196 @@
         <v>106320.4</v>
       </c>
     </row>
+    <row r="8663">
+      <c r="A8663" t="inlineStr">
+        <is>
+          <t>2025-05-21 10:53</t>
+        </is>
+      </c>
+      <c r="B8663" t="n">
+        <v>106355.38</v>
+      </c>
+    </row>
+    <row r="8664">
+      <c r="A8664" t="inlineStr">
+        <is>
+          <t>2025-05-21 10:54</t>
+        </is>
+      </c>
+      <c r="B8664" t="n">
+        <v>106362.16</v>
+      </c>
+    </row>
+    <row r="8665">
+      <c r="A8665" t="inlineStr">
+        <is>
+          <t>2025-05-21 10:55</t>
+        </is>
+      </c>
+      <c r="B8665" t="n">
+        <v>106369.84</v>
+      </c>
+    </row>
+    <row r="8666">
+      <c r="A8666" t="inlineStr">
+        <is>
+          <t>2025-05-21 10:56</t>
+        </is>
+      </c>
+      <c r="B8666" t="n">
+        <v>106344.3</v>
+      </c>
+    </row>
+    <row r="8667">
+      <c r="A8667" t="inlineStr">
+        <is>
+          <t>2025-05-21 10:57</t>
+        </is>
+      </c>
+      <c r="B8667" t="n">
+        <v>106360.99</v>
+      </c>
+    </row>
+    <row r="8668">
+      <c r="A8668" t="inlineStr">
+        <is>
+          <t>2025-05-21 10:58</t>
+        </is>
+      </c>
+      <c r="B8668" t="n">
+        <v>106354.26</v>
+      </c>
+    </row>
+    <row r="8669">
+      <c r="A8669" t="inlineStr">
+        <is>
+          <t>2025-05-21 10:59</t>
+        </is>
+      </c>
+      <c r="B8669" t="n">
+        <v>106362.15</v>
+      </c>
+    </row>
+    <row r="8670">
+      <c r="A8670" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:00</t>
+        </is>
+      </c>
+      <c r="B8670" t="n">
+        <v>106358.98</v>
+      </c>
+    </row>
+    <row r="8671">
+      <c r="A8671" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:01</t>
+        </is>
+      </c>
+      <c r="B8671" t="n">
+        <v>106349.69</v>
+      </c>
+    </row>
+    <row r="8672">
+      <c r="A8672" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:02</t>
+        </is>
+      </c>
+      <c r="B8672" t="n">
+        <v>106345.71</v>
+      </c>
+    </row>
+    <row r="8673">
+      <c r="A8673" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:03</t>
+        </is>
+      </c>
+      <c r="B8673" t="n">
+        <v>106337.08</v>
+      </c>
+    </row>
+    <row r="8674">
+      <c r="A8674" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:04</t>
+        </is>
+      </c>
+      <c r="B8674" t="n">
+        <v>106294.96</v>
+      </c>
+    </row>
+    <row r="8675">
+      <c r="A8675" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:05</t>
+        </is>
+      </c>
+      <c r="B8675" t="n">
+        <v>106351.98</v>
+      </c>
+    </row>
+    <row r="8676">
+      <c r="A8676" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:06</t>
+        </is>
+      </c>
+      <c r="B8676" t="n">
+        <v>106369.88</v>
+      </c>
+    </row>
+    <row r="8677">
+      <c r="A8677" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:07</t>
+        </is>
+      </c>
+      <c r="B8677" t="n">
+        <v>106377.54</v>
+      </c>
+    </row>
+    <row r="8678">
+      <c r="A8678" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:08</t>
+        </is>
+      </c>
+      <c r="B8678" t="n">
+        <v>106375.73</v>
+      </c>
+    </row>
+    <row r="8679">
+      <c r="A8679" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:09</t>
+        </is>
+      </c>
+      <c r="B8679" t="n">
+        <v>106375.8</v>
+      </c>
+    </row>
+    <row r="8680">
+      <c r="A8680" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:10</t>
+        </is>
+      </c>
+      <c r="B8680" t="n">
+        <v>106439.02</v>
+      </c>
+    </row>
+    <row r="8681">
+      <c r="A8681" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:12</t>
+        </is>
+      </c>
+      <c r="B8681" t="n">
+        <v>106423.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Uploads/bitcoin_close_1min.xlsx
+++ b/Uploads/bitcoin_close_1min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8853"/>
+  <dimension ref="A1:B8874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88965,6 +88965,216 @@
         <v>107440.38</v>
       </c>
     </row>
+    <row r="8854">
+      <c r="A8854" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:15</t>
+        </is>
+      </c>
+      <c r="B8854" t="n">
+        <v>107488.43</v>
+      </c>
+    </row>
+    <row r="8855">
+      <c r="A8855" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:16</t>
+        </is>
+      </c>
+      <c r="B8855" t="n">
+        <v>107408.13</v>
+      </c>
+    </row>
+    <row r="8856">
+      <c r="A8856" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:17</t>
+        </is>
+      </c>
+      <c r="B8856" t="n">
+        <v>107594.03</v>
+      </c>
+    </row>
+    <row r="8857">
+      <c r="A8857" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:18</t>
+        </is>
+      </c>
+      <c r="B8857" t="n">
+        <v>107510.39</v>
+      </c>
+    </row>
+    <row r="8858">
+      <c r="A8858" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:19</t>
+        </is>
+      </c>
+      <c r="B8858" t="n">
+        <v>107571.77</v>
+      </c>
+    </row>
+    <row r="8859">
+      <c r="A8859" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:20</t>
+        </is>
+      </c>
+      <c r="B8859" t="n">
+        <v>107689.48</v>
+      </c>
+    </row>
+    <row r="8860">
+      <c r="A8860" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:21</t>
+        </is>
+      </c>
+      <c r="B8860" t="n">
+        <v>107744.54</v>
+      </c>
+    </row>
+    <row r="8861">
+      <c r="A8861" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:22</t>
+        </is>
+      </c>
+      <c r="B8861" t="n">
+        <v>107684.97</v>
+      </c>
+    </row>
+    <row r="8862">
+      <c r="A8862" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:23</t>
+        </is>
+      </c>
+      <c r="B8862" t="n">
+        <v>107646.3</v>
+      </c>
+    </row>
+    <row r="8863">
+      <c r="A8863" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:24</t>
+        </is>
+      </c>
+      <c r="B8863" t="n">
+        <v>107697.22</v>
+      </c>
+    </row>
+    <row r="8864">
+      <c r="A8864" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:25</t>
+        </is>
+      </c>
+      <c r="B8864" t="n">
+        <v>107652.83</v>
+      </c>
+    </row>
+    <row r="8865">
+      <c r="A8865" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:26</t>
+        </is>
+      </c>
+      <c r="B8865" t="n">
+        <v>107496.04</v>
+      </c>
+    </row>
+    <row r="8866">
+      <c r="A8866" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:27</t>
+        </is>
+      </c>
+      <c r="B8866" t="n">
+        <v>107388.34</v>
+      </c>
+    </row>
+    <row r="8867">
+      <c r="A8867" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:28</t>
+        </is>
+      </c>
+      <c r="B8867" t="n">
+        <v>107402.91</v>
+      </c>
+    </row>
+    <row r="8868">
+      <c r="A8868" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:29</t>
+        </is>
+      </c>
+      <c r="B8868" t="n">
+        <v>107365.59</v>
+      </c>
+    </row>
+    <row r="8869">
+      <c r="A8869" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:31</t>
+        </is>
+      </c>
+      <c r="B8869" t="n">
+        <v>107472.18</v>
+      </c>
+    </row>
+    <row r="8870">
+      <c r="A8870" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:32</t>
+        </is>
+      </c>
+      <c r="B8870" t="n">
+        <v>107374</v>
+      </c>
+    </row>
+    <row r="8871">
+      <c r="A8871" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:33</t>
+        </is>
+      </c>
+      <c r="B8871" t="n">
+        <v>107279.01</v>
+      </c>
+    </row>
+    <row r="8872">
+      <c r="A8872" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:34</t>
+        </is>
+      </c>
+      <c r="B8872" t="n">
+        <v>107098.88</v>
+      </c>
+    </row>
+    <row r="8873">
+      <c r="A8873" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:35</t>
+        </is>
+      </c>
+      <c r="B8873" t="n">
+        <v>107103.67</v>
+      </c>
+    </row>
+    <row r="8874">
+      <c r="A8874" t="inlineStr">
+        <is>
+          <t>2025-05-21 14:37</t>
+        </is>
+      </c>
+      <c r="B8874" t="n">
+        <v>107278.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Uploads/bitcoin_close_1min.xlsx
+++ b/Uploads/bitcoin_close_1min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7161"/>
+  <dimension ref="A1:B7176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57729,6 +57729,126 @@
         <v>105504.01</v>
       </c>
     </row>
+    <row r="7162">
+      <c r="A7162" s="2" t="n">
+        <v>45812.20486111111</v>
+      </c>
+      <c r="B7162" t="n">
+        <v>105479.41</v>
+      </c>
+    </row>
+    <row r="7163">
+      <c r="A7163" s="2" t="n">
+        <v>45812.20625</v>
+      </c>
+      <c r="B7163" t="n">
+        <v>105473.18</v>
+      </c>
+    </row>
+    <row r="7164">
+      <c r="A7164" s="2" t="n">
+        <v>45812.20694444444</v>
+      </c>
+      <c r="B7164" t="n">
+        <v>105489.73</v>
+      </c>
+    </row>
+    <row r="7165">
+      <c r="A7165" s="2" t="n">
+        <v>45812.20763888889</v>
+      </c>
+      <c r="B7165" t="n">
+        <v>105490.89</v>
+      </c>
+    </row>
+    <row r="7166">
+      <c r="A7166" s="2" t="n">
+        <v>45812.20902777778</v>
+      </c>
+      <c r="B7166" t="n">
+        <v>105474.45</v>
+      </c>
+    </row>
+    <row r="7167">
+      <c r="A7167" s="2" t="n">
+        <v>45812.20972222222</v>
+      </c>
+      <c r="B7167" t="n">
+        <v>105510.6</v>
+      </c>
+    </row>
+    <row r="7168">
+      <c r="A7168" s="2" t="n">
+        <v>45812.21041666667</v>
+      </c>
+      <c r="B7168" t="n">
+        <v>105452.88</v>
+      </c>
+    </row>
+    <row r="7169">
+      <c r="A7169" s="2" t="n">
+        <v>45812.21180555555</v>
+      </c>
+      <c r="B7169" t="n">
+        <v>105473.13</v>
+      </c>
+    </row>
+    <row r="7170">
+      <c r="A7170" s="2" t="n">
+        <v>45812.21319444444</v>
+      </c>
+      <c r="B7170" t="n">
+        <v>105496.24</v>
+      </c>
+    </row>
+    <row r="7171">
+      <c r="A7171" s="2" t="n">
+        <v>45812.21388888889</v>
+      </c>
+      <c r="B7171" t="n">
+        <v>105532.5</v>
+      </c>
+    </row>
+    <row r="7172">
+      <c r="A7172" s="2" t="n">
+        <v>45812.21458333333</v>
+      </c>
+      <c r="B7172" t="n">
+        <v>105524.91</v>
+      </c>
+    </row>
+    <row r="7173">
+      <c r="A7173" s="2" t="n">
+        <v>45812.21527777778</v>
+      </c>
+      <c r="B7173" t="n">
+        <v>105487.8</v>
+      </c>
+    </row>
+    <row r="7174">
+      <c r="A7174" s="2" t="n">
+        <v>45812.21597222222</v>
+      </c>
+      <c r="B7174" t="n">
+        <v>105487.2</v>
+      </c>
+    </row>
+    <row r="7175">
+      <c r="A7175" s="2" t="n">
+        <v>45812.21666666667</v>
+      </c>
+      <c r="B7175" t="n">
+        <v>105495.79</v>
+      </c>
+    </row>
+    <row r="7176">
+      <c r="A7176" s="2" t="n">
+        <v>45812.21805555555</v>
+      </c>
+      <c r="B7176" t="n">
+        <v>105504.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Uploads/bitcoin_close_1min.xlsx
+++ b/Uploads/bitcoin_close_1min.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7256"/>
+  <dimension ref="A1:B7270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58489,6 +58489,118 @@
         <v>104884.59</v>
       </c>
     </row>
+    <row r="7257">
+      <c r="A7257" s="2" t="n">
+        <v>45815.23125</v>
+      </c>
+      <c r="B7257" t="n">
+        <v>104889.13</v>
+      </c>
+    </row>
+    <row r="7258">
+      <c r="A7258" s="2" t="n">
+        <v>45815.23194444444</v>
+      </c>
+      <c r="B7258" t="n">
+        <v>104907.43</v>
+      </c>
+    </row>
+    <row r="7259">
+      <c r="A7259" s="2" t="n">
+        <v>45815.23263888889</v>
+      </c>
+      <c r="B7259" t="n">
+        <v>104893.52</v>
+      </c>
+    </row>
+    <row r="7260">
+      <c r="A7260" s="2" t="n">
+        <v>45815.23402777778</v>
+      </c>
+      <c r="B7260" t="n">
+        <v>104885.77</v>
+      </c>
+    </row>
+    <row r="7261">
+      <c r="A7261" s="2" t="n">
+        <v>45815.23472222222</v>
+      </c>
+      <c r="B7261" t="n">
+        <v>104896.01</v>
+      </c>
+    </row>
+    <row r="7262">
+      <c r="A7262" s="2" t="n">
+        <v>45815.23541666667</v>
+      </c>
+      <c r="B7262" t="n">
+        <v>104882.64</v>
+      </c>
+    </row>
+    <row r="7263">
+      <c r="A7263" s="2" t="n">
+        <v>45815.23611111111</v>
+      </c>
+      <c r="B7263" t="n">
+        <v>104884.22</v>
+      </c>
+    </row>
+    <row r="7264">
+      <c r="A7264" s="2" t="n">
+        <v>45815.23680555556</v>
+      </c>
+      <c r="B7264" t="n">
+        <v>104886.05</v>
+      </c>
+    </row>
+    <row r="7265">
+      <c r="A7265" s="2" t="n">
+        <v>45815.2375</v>
+      </c>
+      <c r="B7265" t="n">
+        <v>104893.39</v>
+      </c>
+    </row>
+    <row r="7266">
+      <c r="A7266" s="2" t="n">
+        <v>45815.23819444444</v>
+      </c>
+      <c r="B7266" t="n">
+        <v>104943.05</v>
+      </c>
+    </row>
+    <row r="7267">
+      <c r="A7267" s="2" t="n">
+        <v>45815.23888888889</v>
+      </c>
+      <c r="B7267" t="n">
+        <v>105002.05</v>
+      </c>
+    </row>
+    <row r="7268">
+      <c r="A7268" s="2" t="n">
+        <v>45815.23958333334</v>
+      </c>
+      <c r="B7268" t="n">
+        <v>104977.77</v>
+      </c>
+    </row>
+    <row r="7269">
+      <c r="A7269" s="2" t="n">
+        <v>45815.24027777778</v>
+      </c>
+      <c r="B7269" t="n">
+        <v>104983.8</v>
+      </c>
+    </row>
+    <row r="7270">
+      <c r="A7270" s="2" t="n">
+        <v>45815.24097222222</v>
+      </c>
+      <c r="B7270" t="n">
+        <v>105060.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
